--- a/biology/Origine et évolution du vivant/L'Instinct_du_langage/L'Instinct_du_langage.xlsx
+++ b/biology/Origine et évolution du vivant/L'Instinct_du_langage/L'Instinct_du_langage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Instinct_du_langage</t>
+          <t>L'Instinct_du_langage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Instinct du langage (The Language Instinct) est un livre de Steven Pinker publié en 1994. Dans cet ouvrage de vulgarisation, Pinker défend la thèse selon laquelle les humains naissent avec une capacité innée pour le langage. Il reprend le propos de Noam Chomsky selon lequel le langage humain dérive d'une grammaire universelle, mais s'éloigne du scepticisme de Chomsky quant au fait que la théorie de l'évolution peut expliquer l'instinct du langage.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Instinct_du_langage</t>
+          <t>L'Instinct_du_langage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Thèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Steven Pinker énumère un certain nombre d'idées reçues sur le langage :
 il faut enseigner le langage aux enfants ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Instinct_du_langage</t>
+          <t>L'Instinct_du_langage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,10 +566,12 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a pas de consensus sur l'aspect inné du langage. Le linguiste anglais Geoffrey Sampson (en) affirme ainsi que « soit la logique est fallacieuse, soit les données factuelles sont incorrectes (ou parfois les deux)[1] ».
-Richard Webster (en) écrit que Pinker est convaincant quand il affirme que les aptitudes humaines au langage nous viennent de notre bagage génétique construit par l'évolution par la sélection naturelle de réseaux de neurones spécialisés au sein du cerveau. Il dit aussi que l'attaque de Pinker contre le Modèle Standard en Sciences Sociales (en) de la nature humaine est efficace. Webster accepte l'argument de Pinker selon lequel, pour des motifs idéologiques, des sciences sociales du XXe siècle ont minimisé la mesure dans laquelle la nature humaine est influencée par la génétique. Cependant, Webster trouve que les spéculations de Pinker sur d'autres réseaux de neurones spécialisés qui peuvent avoir évolué dans le cerveau humain, par exemple un réseau consacré à la « mécanique intuitive » et un autre à la « biologie intuitive », sont discutables, et craint que ces hypothèses ne soient prises pour de la science, en renforçant les partisans d'un déterminisme génétique extrême[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a pas de consensus sur l'aspect inné du langage. Le linguiste anglais Geoffrey Sampson (en) affirme ainsi que « soit la logique est fallacieuse, soit les données factuelles sont incorrectes (ou parfois les deux) ».
+Richard Webster (en) écrit que Pinker est convaincant quand il affirme que les aptitudes humaines au langage nous viennent de notre bagage génétique construit par l'évolution par la sélection naturelle de réseaux de neurones spécialisés au sein du cerveau. Il dit aussi que l'attaque de Pinker contre le Modèle Standard en Sciences Sociales (en) de la nature humaine est efficace. Webster accepte l'argument de Pinker selon lequel, pour des motifs idéologiques, des sciences sociales du XXe siècle ont minimisé la mesure dans laquelle la nature humaine est influencée par la génétique. Cependant, Webster trouve que les spéculations de Pinker sur d'autres réseaux de neurones spécialisés qui peuvent avoir évolué dans le cerveau humain, par exemple un réseau consacré à la « mécanique intuitive » et un autre à la « biologie intuitive », sont discutables, et craint que ces hypothèses ne soient prises pour de la science, en renforçant les partisans d'un déterminisme génétique extrême.
 </t>
         </is>
       </c>
